--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522307.860006531</v>
+        <v>1519912.204001349</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>26.73542414041736</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>160.1138227228606</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>29.55431702783247</v>
+        <v>87.84184426992468</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>6.038141905822513</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>96.15821112100296</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>73.40533875725568</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.1987920649929</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>134.9926314375148</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>99.70860766997318</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>45.49837988677795</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>90.2656944472344</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>122.4770547252869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699825</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W16" t="n">
-        <v>256.0341711178253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>2.268486125805158</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161897768</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936179</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892427987</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695675</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>60.86846495359944</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.928676888698</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.966159948286</v>
+        <v>909.10975591427</v>
       </c>
       <c r="D2" t="n">
-        <v>1172.700461341536</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>786.9122087432916</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>375.9263039536839</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859626</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905592</v>
+        <v>1075.230982038696</v>
       </c>
       <c r="M2" t="n">
-        <v>988.79373224816</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.268838483743</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2286.52851695282</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2286.52851695282</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2286.52851695282</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2286.52851695282</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>2286.52851695282</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>2286.52851695282</v>
+        <v>1278.072272854682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>402.5242931591499</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>979.247108262404</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882298</v>
+        <v>1472.557493554223</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>2113.580703174116</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9744732123549</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9744732123549</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9744732123549</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="E4" t="n">
-        <v>249.9744732123549</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="F4" t="n">
-        <v>249.9744732123549</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="G4" t="n">
-        <v>81.65270080547879</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="H4" t="n">
-        <v>81.65270080547879</v>
+        <v>140.5289909490063</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>797.654523128663</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>542.9700349227761</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103722</v>
+        <v>542.9700349227761</v>
       </c>
       <c r="X4" t="n">
-        <v>249.9744732123549</v>
+        <v>542.9700349227761</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9744732123549</v>
+        <v>322.177455779246</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.610655259717</v>
+        <v>1522.305681651088</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.610655259717</v>
+        <v>1522.305681651088</v>
       </c>
       <c r="D5" t="n">
-        <v>957.3449566529669</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E5" t="n">
-        <v>571.5567040547226</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>160.570799265115</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>148.929361505651</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4565,22 +4565,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.349827299651</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.210495323839</v>
+        <v>1528.404814889292</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.7129489052128</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="C7" t="n">
-        <v>199.7129489052128</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7129489052128</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1450.534004159847</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1227.599429701828</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1153.452622876317</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="V7" t="n">
-        <v>898.7681346704305</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="W7" t="n">
-        <v>609.3509646334699</v>
+        <v>546.9431204322916</v>
       </c>
       <c r="X7" t="n">
-        <v>381.3614137354525</v>
+        <v>546.9431204322916</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.3614137354525</v>
+        <v>382.0958557201776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1319.759455348121</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C8" t="n">
-        <v>950.7969384077089</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D8" t="n">
-        <v>592.5312398009585</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>206.7429872027142</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>199.7974864535108</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>188.1560486940468</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2365.099820237525</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2365.099820237525</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>2034.036932893954</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.759455348121</v>
+        <v>1681.26827762384</v>
       </c>
       <c r="X8" t="n">
-        <v>1319.759455348121</v>
+        <v>1681.26827762384</v>
       </c>
       <c r="Y8" t="n">
-        <v>1319.759455348121</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,25 +4884,25 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>491.5015312480864</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457228</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.685407663791</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379322</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
-        <v>2284.09081624434</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>396.5219897838675</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>350.5640303022736</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1555.806201015257</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1359.356535021226</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1136.421960563207</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>847.3041835736055</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V10" t="n">
-        <v>847.3041835736055</v>
+        <v>906.7317389643582</v>
       </c>
       <c r="W10" t="n">
-        <v>847.3041835736055</v>
+        <v>617.3145689273977</v>
       </c>
       <c r="X10" t="n">
-        <v>847.3041835736055</v>
+        <v>617.3145689273977</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>396.5219897838675</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,25 +5288,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297724</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765927</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420832</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443773</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6783,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,16 +7181,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121625</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468476</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962607</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589159</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143766</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143766</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143766</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.951795518649</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>231.322734265689</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>151.673509307991</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>79.95524621405767</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>311.6429773214595</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>35.3897227018706</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>191.4694788103612</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.4118612602867</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260592</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>129.660588598541</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294877</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>30.48882721876566</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.3469868924072</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393192</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459443</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.2691783702286</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>957321.6646846295</v>
+        <v>957321.6646846292</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934315.3989887759</v>
+        <v>934315.398988776</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.4203363678</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="16">
@@ -26317,34 +26317,34 @@
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
@@ -26353,7 +26353,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.620387699105777e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695061</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695059</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26445,16 +26445,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531694982</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675662.7434223699</v>
+        <v>-675662.7434223724</v>
       </c>
       <c r="C6" t="n">
-        <v>117838.9022885243</v>
+        <v>117838.9022885273</v>
       </c>
       <c r="D6" t="n">
-        <v>290603.2620784199</v>
+        <v>290603.2620784196</v>
       </c>
       <c r="E6" t="n">
-        <v>-103832.2532950995</v>
+        <v>-103866.9912205349</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506518</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="J6" t="n">
-        <v>227642.5976246035</v>
+        <v>227607.8596991677</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506516</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506517</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="M6" t="n">
-        <v>266172.1575464164</v>
+        <v>266137.4196209805</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506515</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506512</v>
+        <v>397021.8765252159</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506519</v>
+        <v>397021.8765252158</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>327.9476174802656</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.7838695063229</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>85.22505947165391</v>
+        <v>26.93753222956153</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>376.6956997576581</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>204.6280761274568</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>212.82126046245</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.38586128710193</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>165.793655810945</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>106.8502982757876</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>121.7484412118499</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.83445417331002</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.571301715478522e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31461,22 +31461,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673334</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>168.0123247135864</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>471.3457455971961</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>429.5686803348925</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>202.6048343658536</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>578.248564690639</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671837</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>287.3864175150209</v>
       </c>
       <c r="Q6" t="n">
         <v>328.1069739656114</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,13 +35106,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>380.0164378035053</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35264,16 +35264,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4415474900489</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531504</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>22.33282074962241</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
